--- a/biology/Botanique/Ruppia/Ruppia.xlsx
+++ b/biology/Botanique/Ruppia/Ruppia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruppia est un genre de plantes monocotylédones. C'est le seul genre de la famille des Ruppiaceae. Il comprend  quelques espèces de plantes herbacées aquatiques, généralement pérennes, submergées ou à feuilles flottantes des régions froides à tropicales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Ruppia est dédié au botaniste allemand Heinrich Bernhard Rupp (1688-1719)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Ruppia est dédié au botaniste allemand Heinrich Bernhard Rupp (1688-1719).
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (11 avril 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (11 avril 2021) :
 Ruppia cirrhosa (Petagna) Grande
 Ruppia didyma Sw. ex Wikstr.
 Ruppia maritima L.
-Selon Catalogue of Life                                   (11 avril 2021)[3] :
+Selon Catalogue of Life                                   (11 avril 2021) :
 Ruppia bicarpa Yu Ito &amp; Muasya
 Ruppia brevipedunculata Shuo Yu &amp; Hartog
 Ruppia cirrhosa (Petagna) Grande
@@ -559,10 +575,10 @@
 Ruppia polycarpa R.Mason
 Ruppia sinensis Shuo Yu &amp; Hartog
 Ruppia tuberosa J.S.Davis &amp; Toml.
-Selon World Register of Marine Species                               (15 avr. 2010)[4] (uniquement espèces marines):
+Selon World Register of Marine Species                               (15 avr. 2010) (uniquement espèces marines):
 Ruppia cirrhosa (Petag.) Grande
 Ruppia maritima L.
-Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 Ruppia cirrhosa  (Petagna) Grande (1918)
 Ruppia didyma  Sw. ex Wikstr. (1825)
 Ruppia filifolia  (Phil.) Skottsb., Kongl. Svenska Vetensk. Acad. Handl., n.s. (1916)
@@ -570,7 +586,7 @@
 Ruppia megacarpa  R.Mason (1967)
 Ruppia polycarpa  R.Mason (1967)
 Ruppia tuberosa  J.S.Davis &amp; Toml. (1974)
-Selon NCBI  (11 avril 2021)[6] :
+Selon NCBI  (11 avril 2021) :
 Ruppia bicarpa
 Ruppia brevipedunculata
 Ruppia cirrhosa
@@ -611,11 +627,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que majoritairement inféodées aux eaux douces, certains auteurs considèrent certaines espèces de Ruppia comme de véritables « herbes marines ».En particulier, deux espèces sont considérées comme telles :
-Ruppia cirrhosa[7]
-Ruppia tuberosa [8]
+Ruppia cirrhosa
+Ruppia tuberosa 
 Plus généralement, les différentes espèces de Ruppia se répartissent comme suit :
 </t>
         </is>
